--- a/fuction_ensemble_1/redes-ensemble-s/mse_sup/25_model_14_5_24.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/mse_sup/25_model_14_5_24.xlsx
@@ -494,7 +494,7 @@
         <v>1.657512896333784</v>
       </c>
       <c r="D4" t="n">
-        <v>1.657517671585083</v>
+        <v>1.657517552375793</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>2.473616686300074</v>
       </c>
       <c r="D6" t="n">
-        <v>2.473427534103394</v>
+        <v>2.473427295684814</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>3.303542096322838</v>
       </c>
       <c r="D7" t="n">
-        <v>3.303544998168945</v>
+        <v>3.303544759750366</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         <v>2.647911460130388</v>
       </c>
       <c r="D10" t="n">
-        <v>2.647914171218872</v>
+        <v>2.647913932800293</v>
       </c>
     </row>
     <row r="11">
@@ -620,7 +620,7 @@
         <v>1.752686319765095</v>
       </c>
       <c r="D13" t="n">
-        <v>1.752845525741577</v>
+        <v>1.752845406532288</v>
       </c>
     </row>
     <row r="14">
@@ -662,7 +662,7 @@
         <v>2.816739155750824</v>
       </c>
       <c r="D16" t="n">
-        <v>2.816743850708008</v>
+        <v>2.816743612289429</v>
       </c>
     </row>
     <row r="17">
@@ -704,7 +704,7 @@
         <v>0.705123113609381</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7050553560256958</v>
+        <v>0.7050555944442749</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>1.666602084301417</v>
       </c>
       <c r="D20" t="n">
-        <v>1.66130256652832</v>
+        <v>1.661302447319031</v>
       </c>
     </row>
     <row r="21">
@@ -746,7 +746,7 @@
         <v>2.560174814827988</v>
       </c>
       <c r="D22" t="n">
-        <v>2.560164451599121</v>
+        <v>2.5601646900177</v>
       </c>
     </row>
     <row r="23">
